--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -23448,6 +23448,15 @@
         <v>3.55</v>
       </c>
     </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B881"/>
+      <c r="C881" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t xml:space="preserve">Oct 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 2024</t>
   </si>
   <si>
     <t xml:space="preserve">inflation</t>
@@ -3215,7 +3218,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="n">
-        <v>2.60819362118248</v>
+        <v>3.43466292284504</v>
       </c>
     </row>
     <row r="250">
@@ -3223,7 +3226,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="n">
-        <v>0.635082316027491</v>
+        <v>0.695131636862056</v>
       </c>
     </row>
     <row r="251">
@@ -3231,7 +3234,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.503743989789085</v>
+        <v>-0.293563104613559</v>
       </c>
     </row>
     <row r="252">
@@ -3239,7 +3242,15 @@
         <v>252</v>
       </c>
       <c r="B252" t="n">
-        <v>0.994781495962127</v>
+        <v>0.0740557016652543</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1.6633648946798</v>
       </c>
     </row>
   </sheetData>
@@ -3262,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2">
@@ -13751,6 +13762,14 @@
       </c>
       <c r="B1312" t="n">
         <v>2.89761751448809</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="1" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>2.68542199488491</v>
       </c>
     </row>
   </sheetData>
@@ -13773,10 +13792,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2">
@@ -23452,9 +23471,20 @@
       <c r="A881" s="1" t="n">
         <v>45383</v>
       </c>
-      <c r="B881"/>
+      <c r="B881" t="n">
+        <v>-0.747451881428104</v>
+      </c>
       <c r="C881" t="n">
         <v>3.86</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B882"/>
+      <c r="C882" t="n">
+        <v>3.88</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -13772,6 +13772,14 @@
         <v>2.68542199488491</v>
       </c>
     </row>
+    <row r="1314">
+      <c r="A1314" s="1" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>2.86624203821657</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23482,9 +23490,20 @@
       <c r="A882" s="1" t="n">
         <v>45413</v>
       </c>
-      <c r="B882"/>
+      <c r="B882" t="n">
+        <v>-0.748774373798095</v>
+      </c>
       <c r="C882" t="n">
         <v>3.88</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B883"/>
+      <c r="C883" t="n">
+        <v>3.53</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -13780,6 +13780,14 @@
         <v>2.86624203821657</v>
       </c>
     </row>
+    <row r="1315">
+      <c r="A1315" s="1" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>2.67175572519085</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23501,7 +23509,9 @@
       <c r="A883" s="1" t="n">
         <v>45444</v>
       </c>
-      <c r="B883"/>
+      <c r="B883" t="n">
+        <v>-0.97844206426535</v>
+      </c>
       <c r="C883" t="n">
         <v>3.53</v>
       </c>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -776,6 +776,9 @@
   </si>
   <si>
     <t xml:space="preserve">Jan 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr 2024</t>
   </si>
   <si>
     <t xml:space="preserve">inflation</t>
@@ -791,9 +794,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -830,7 +831,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3250,7 +3251,15 @@
         <v>253</v>
       </c>
       <c r="B253" t="n">
-        <v>1.6633648946798</v>
+        <v>1.75896806879616</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2.13833131232695</v>
       </c>
     </row>
   </sheetData>
@@ -3273,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
@@ -13786,6 +13795,14 @@
       </c>
       <c r="B1315" t="n">
         <v>2.67175572519085</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>2.53004427577483</v>
       </c>
     </row>
   </sheetData>
@@ -13808,10 +13825,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2">
@@ -23514,6 +23531,26 @@
       </c>
       <c r="C883" t="n">
         <v>3.53</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B884" t="n">
+        <v>-1.33819842962263</v>
+      </c>
+      <c r="C884" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B885"/>
+      <c r="C885" t="n">
+        <v>2.96</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -13805,6 +13805,14 @@
         <v>2.53004427577483</v>
       </c>
     </row>
+    <row r="1317">
+      <c r="A1317" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>1.9533711405167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23548,9 +23556,20 @@
       <c r="A885" s="1" t="n">
         <v>45505</v>
       </c>
-      <c r="B885"/>
+      <c r="B885" t="n">
+        <v>-1.3404856423835</v>
+      </c>
       <c r="C885" t="n">
         <v>2.96</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B886"/>
+      <c r="C886" t="n">
+        <v>2.76</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -13813,6 +13813,14 @@
         <v>1.9533711405167</v>
       </c>
     </row>
+    <row r="1318">
+      <c r="A1318" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>1.64037854889589</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23567,7 +23575,9 @@
       <c r="A886" s="1" t="n">
         <v>45536</v>
       </c>
-      <c r="B886"/>
+      <c r="B886" t="n">
+        <v>-1.31692137990123</v>
+      </c>
       <c r="C886" t="n">
         <v>2.76</v>
       </c>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t xml:space="preserve">Apr 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul 2024</t>
   </si>
   <si>
     <t xml:space="preserve">inflation</t>
@@ -3155,7 +3158,7 @@
         <v>241</v>
       </c>
       <c r="B241" t="n">
-        <v>5.88502612839583</v>
+        <v>6.99040276179133</v>
       </c>
     </row>
     <row r="242">
@@ -3163,7 +3166,7 @@
         <v>242</v>
       </c>
       <c r="B242" t="n">
-        <v>-1.24156255107707</v>
+        <v>-0.467958376300814</v>
       </c>
     </row>
     <row r="243">
@@ -3171,7 +3174,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="n">
-        <v>6.89176695396292</v>
+        <v>8.30481495188744</v>
       </c>
     </row>
     <row r="244">
@@ -3179,7 +3182,7 @@
         <v>244</v>
       </c>
       <c r="B244" t="n">
-        <v>6.4267048732036</v>
+        <v>7.35624562757611</v>
       </c>
     </row>
     <row r="245">
@@ -3187,7 +3190,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="n">
-        <v>3.90090067370388</v>
+        <v>3.45526141152164</v>
       </c>
     </row>
     <row r="246">
@@ -3195,7 +3198,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="n">
-        <v>3.81113335399927</v>
+        <v>3.80329510744346</v>
       </c>
     </row>
     <row r="247">
@@ -3203,7 +3206,7 @@
         <v>247</v>
       </c>
       <c r="B247" t="n">
-        <v>1.84467744782877</v>
+        <v>2.44313617042435</v>
       </c>
     </row>
     <row r="248">
@@ -3211,7 +3214,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.858612558641525</v>
+        <v>-0.571955095072529</v>
       </c>
     </row>
     <row r="249">
@@ -3219,7 +3222,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="n">
-        <v>3.43466292284504</v>
+        <v>3.92292900548121</v>
       </c>
     </row>
     <row r="250">
@@ -3227,7 +3230,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="n">
-        <v>0.695131636862056</v>
+        <v>0.829480594725518</v>
       </c>
     </row>
     <row r="251">
@@ -3235,7 +3238,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.293563104613559</v>
+        <v>-0.551951953074603</v>
       </c>
     </row>
     <row r="252">
@@ -3243,7 +3246,7 @@
         <v>252</v>
       </c>
       <c r="B252" t="n">
-        <v>0.0740557016652543</v>
+        <v>0.70285786195281</v>
       </c>
     </row>
     <row r="253">
@@ -3251,7 +3254,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="n">
-        <v>1.75896806879616</v>
+        <v>2.0417820933587</v>
       </c>
     </row>
     <row r="254">
@@ -3259,7 +3262,15 @@
         <v>254</v>
       </c>
       <c r="B254" t="n">
-        <v>2.13833131232695</v>
+        <v>2.20866161352826</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1.02688600140308</v>
       </c>
     </row>
   </sheetData>
@@ -3282,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2">
@@ -13819,6 +13830,14 @@
       </c>
       <c r="B1318" t="n">
         <v>1.64037854889589</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>2.01765447667088</v>
       </c>
     </row>
   </sheetData>
@@ -13841,10 +13860,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2">
@@ -23580,6 +23599,26 @@
       </c>
       <c r="C886" t="n">
         <v>2.76</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B887" t="n">
+        <v>-0.965449728669188</v>
+      </c>
+      <c r="C887" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B888"/>
+      <c r="C888" t="n">
+        <v>3.07</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -13840,6 +13840,14 @@
         <v>2.01765447667088</v>
       </c>
     </row>
+    <row r="1320">
+      <c r="A1320" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>1.88916876574308</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23616,7 +23624,9 @@
       <c r="A888" s="1" t="n">
         <v>45597</v>
       </c>
-      <c r="B888"/>
+      <c r="B888" t="n">
+        <v>-0.843287700129686</v>
+      </c>
       <c r="C888" t="n">
         <v>3.07</v>
       </c>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -13848,6 +13848,14 @@
         <v>1.88916876574308</v>
       </c>
     </row>
+    <row r="1321">
+      <c r="A1321" s="1" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>1.83196462413138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23631,6 +23639,26 @@
         <v>3.07</v>
       </c>
     </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B889" t="n">
+        <v>-0.822708251023975</v>
+      </c>
+      <c r="C889" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B890"/>
+      <c r="C890" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -13856,6 +13856,14 @@
         <v>1.83196462413138</v>
       </c>
     </row>
+    <row r="1322">
+      <c r="A1322" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>1.89513581806695</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23654,7 +23662,9 @@
       <c r="A890" s="1" t="n">
         <v>45658</v>
       </c>
-      <c r="B890"/>
+      <c r="B890" t="n">
+        <v>-0.723518283327552</v>
+      </c>
       <c r="C890" t="n">
         <v>2.82</v>
       </c>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -782,6 +782,9 @@
   </si>
   <si>
     <t xml:space="preserve">Jul 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct 2024</t>
   </si>
   <si>
     <t xml:space="preserve">inflation</t>
@@ -3254,7 +3257,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="n">
-        <v>2.0417820933587</v>
+        <v>1.82955340914139</v>
       </c>
     </row>
     <row r="254">
@@ -3262,7 +3265,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="n">
-        <v>2.20866161352826</v>
+        <v>2.77029200807983</v>
       </c>
     </row>
     <row r="255">
@@ -3270,7 +3273,15 @@
         <v>255</v>
       </c>
       <c r="B255" t="n">
-        <v>1.02688600140308</v>
+        <v>2.2131695774771</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2.61226327203565</v>
       </c>
     </row>
   </sheetData>
@@ -3293,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2">
@@ -13884,10 +13895,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2">
@@ -23667,6 +23678,15 @@
       </c>
       <c r="C890" t="n">
         <v>2.82</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B891"/>
+      <c r="C891" t="n">
+        <v>2.66</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -13875,6 +13875,14 @@
         <v>1.89513581806695</v>
       </c>
     </row>
+    <row r="1323">
+      <c r="A1323" s="1" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>2.64483627204029</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23684,9 +23692,20 @@
       <c r="A891" s="1" t="n">
         <v>45689</v>
       </c>
-      <c r="B891"/>
+      <c r="B891" t="n">
+        <v>-0.89089326294209</v>
+      </c>
       <c r="C891" t="n">
         <v>2.66</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B892"/>
+      <c r="C892" t="n">
+        <v>2.72</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -13883,6 +13883,14 @@
         <v>2.64483627204029</v>
       </c>
     </row>
+    <row r="1324">
+      <c r="A1324" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>2.31539424280349</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23703,7 +23711,9 @@
       <c r="A892" s="1" t="n">
         <v>45717</v>
       </c>
-      <c r="B892"/>
+      <c r="B892" t="n">
+        <v>-0.447051762485129</v>
+      </c>
       <c r="C892" t="n">
         <v>2.72</v>
       </c>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -785,6 +785,9 @@
   </si>
   <si>
     <t xml:space="preserve">Oct 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 2025</t>
   </si>
   <si>
     <t xml:space="preserve">inflation</t>
@@ -3257,7 +3260,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="n">
-        <v>1.82955340914139</v>
+        <v>2.14504255766947</v>
       </c>
     </row>
     <row r="254">
@@ -3265,7 +3268,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="n">
-        <v>2.77029200807983</v>
+        <v>2.54978334208102</v>
       </c>
     </row>
     <row r="255">
@@ -3273,7 +3276,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="n">
-        <v>2.2131695774771</v>
+        <v>2.40598915521084</v>
       </c>
     </row>
     <row r="256">
@@ -3281,7 +3284,15 @@
         <v>256</v>
       </c>
       <c r="B256" t="n">
-        <v>2.61226327203565</v>
+        <v>2.05512980432059</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2.21597050411724</v>
       </c>
     </row>
   </sheetData>
@@ -3304,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2">
@@ -13889,6 +13900,14 @@
       </c>
       <c r="B1324" t="n">
         <v>2.31539424280349</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>1.74346201743463</v>
       </c>
     </row>
   </sheetData>
@@ -13911,10 +13930,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2">
@@ -23716,6 +23735,26 @@
       </c>
       <c r="C892" t="n">
         <v>2.72</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B893" t="n">
+        <v>-0.329031909893819</v>
+      </c>
+      <c r="C893" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B894"/>
+      <c r="C894" t="n">
+        <v>2.78</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -13910,6 +13910,14 @@
         <v>1.74346201743463</v>
       </c>
     </row>
+    <row r="1326">
+      <c r="A1326" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>1.73374613003097</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23752,9 +23760,20 @@
       <c r="A894" s="1" t="n">
         <v>45778</v>
       </c>
-      <c r="B894"/>
+      <c r="B894" t="n">
+        <v>0.129769276382991</v>
+      </c>
       <c r="C894" t="n">
         <v>2.78</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B895"/>
+      <c r="C895" t="n">
+        <v>2.86</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -13918,6 +13918,14 @@
         <v>1.73374613003097</v>
       </c>
     </row>
+    <row r="1327">
+      <c r="A1327" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>1.85873605947955</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23771,7 +23779,9 @@
       <c r="A895" s="1" t="n">
         <v>45809</v>
       </c>
-      <c r="B895"/>
+      <c r="B895" t="n">
+        <v>0.413267980053149</v>
+      </c>
       <c r="C895" t="n">
         <v>2.86</v>
       </c>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -788,6 +788,9 @@
   </si>
   <si>
     <t xml:space="preserve">Jan 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr 2025</t>
   </si>
   <si>
     <t xml:space="preserve">inflation</t>
@@ -3292,7 +3295,15 @@
         <v>257</v>
       </c>
       <c r="B257" t="n">
-        <v>2.21597050411724</v>
+        <v>2.03282197854597</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-1.58228764518592</v>
       </c>
     </row>
   </sheetData>
@@ -3315,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2">
@@ -13924,6 +13935,14 @@
       </c>
       <c r="B1327" t="n">
         <v>1.85873605947955</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>1.72732880937694</v>
       </c>
     </row>
   </sheetData>
@@ -13946,10 +13965,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
@@ -23784,6 +23803,26 @@
       </c>
       <c r="C895" t="n">
         <v>2.86</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B896" t="n">
+        <v>0.494188456619146</v>
+      </c>
+      <c r="C896" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B897"/>
+      <c r="C897" t="n">
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -13945,6 +13945,14 @@
         <v>1.72732880937694</v>
       </c>
     </row>
+    <row r="1329">
+      <c r="A1329" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>1.85414091470952</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23820,9 +23828,20 @@
       <c r="A897" s="1" t="n">
         <v>45870</v>
       </c>
-      <c r="B897"/>
+      <c r="B897" t="n">
+        <v>0.303103316495021</v>
+      </c>
       <c r="C897" t="n">
         <v>2.9</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B898"/>
+      <c r="C898" t="n">
+        <v>2.67</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -13953,6 +13953,14 @@
         <v>1.85414091470952</v>
       </c>
     </row>
+    <row r="1330">
+      <c r="A1330" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>2.35878336436997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23839,7 +23847,9 @@
       <c r="A898" s="1" t="n">
         <v>45901</v>
       </c>
-      <c r="B898"/>
+      <c r="B898" t="n">
+        <v>0.0747613128615319</v>
+      </c>
       <c r="C898" t="n">
         <v>2.67</v>
       </c>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -23854,6 +23854,15 @@
         <v>2.67</v>
       </c>
     </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B899"/>
+      <c r="C899" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -13961,6 +13961,14 @@
         <v>2.35878336436997</v>
       </c>
     </row>
+    <row r="1331">
+      <c r="A1331" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>2.16316440049444</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23858,7 +23866,9 @@
       <c r="A899" s="1" t="n">
         <v>45931</v>
       </c>
-      <c r="B899"/>
+      <c r="B899" t="n">
+        <v>0.237248339024704</v>
+      </c>
       <c r="C899" t="n">
         <v>2.67</v>
       </c>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -791,6 +791,9 @@
   </si>
   <si>
     <t xml:space="preserve">Apr 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul 2025</t>
   </si>
   <si>
     <t xml:space="preserve">inflation</t>
@@ -3199,7 +3202,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="n">
-        <v>3.45526141152164</v>
+        <v>4.21226966734127</v>
       </c>
     </row>
     <row r="246">
@@ -3207,7 +3210,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="n">
-        <v>3.80329510744346</v>
+        <v>4.62879534491738</v>
       </c>
     </row>
     <row r="247">
@@ -3215,7 +3218,7 @@
         <v>247</v>
       </c>
       <c r="B247" t="n">
-        <v>2.44313617042435</v>
+        <v>3.27452200666154</v>
       </c>
     </row>
     <row r="248">
@@ -3223,7 +3226,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.571955095072529</v>
+        <v>0.251843270046992</v>
       </c>
     </row>
     <row r="249">
@@ -3231,7 +3234,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="n">
-        <v>3.92292900548121</v>
+        <v>4.27765146518027</v>
       </c>
     </row>
     <row r="250">
@@ -3239,7 +3242,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="n">
-        <v>0.829480594725518</v>
+        <v>0.639828050655744</v>
       </c>
     </row>
     <row r="251">
@@ -3247,7 +3250,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.551951953074603</v>
+        <v>0.20072429905289</v>
       </c>
     </row>
     <row r="252">
@@ -3255,7 +3258,7 @@
         <v>252</v>
       </c>
       <c r="B252" t="n">
-        <v>0.70285786195281</v>
+        <v>0.206944758219163</v>
       </c>
     </row>
     <row r="253">
@@ -3263,7 +3266,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="n">
-        <v>2.14504255766947</v>
+        <v>2.94657807036658</v>
       </c>
     </row>
     <row r="254">
@@ -3271,7 +3274,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="n">
-        <v>2.54978334208102</v>
+        <v>3.30413514808308</v>
       </c>
     </row>
     <row r="255">
@@ -3279,7 +3282,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="n">
-        <v>2.40598915521084</v>
+        <v>3.3170995049594</v>
       </c>
     </row>
     <row r="256">
@@ -3287,7 +3290,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="n">
-        <v>2.05512980432059</v>
+        <v>2.8353824208952</v>
       </c>
     </row>
     <row r="257">
@@ -3295,7 +3298,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="n">
-        <v>2.03282197854597</v>
+        <v>2.17723026042671</v>
       </c>
     </row>
     <row r="258">
@@ -3303,7 +3306,15 @@
         <v>258</v>
       </c>
       <c r="B258" t="n">
-        <v>-1.58228764518592</v>
+        <v>-1.84940645557947</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2.60343030028252</v>
       </c>
     </row>
   </sheetData>
@@ -3326,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2">
@@ -13989,10 +14000,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2">
@@ -23871,6 +23882,15 @@
       </c>
       <c r="C899" t="n">
         <v>2.67</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B900"/>
+      <c r="C900" t="n">
+        <v>2.64</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -13980,6 +13980,14 @@
         <v>2.16316440049444</v>
       </c>
     </row>
+    <row r="1332">
+      <c r="A1332" s="1" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>2.22496909765142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23888,7 +23896,9 @@
       <c r="A900" s="1" t="n">
         <v>45962</v>
       </c>
-      <c r="B900"/>
+      <c r="B900" t="n">
+        <v>0.230967910630555</v>
+      </c>
       <c r="C900" t="n">
         <v>2.64</v>
       </c>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -23903,6 +23903,15 @@
         <v>2.64</v>
       </c>
     </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B901"/>
+      <c r="C901" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -13988,6 +13988,14 @@
         <v>2.22496909765142</v>
       </c>
     </row>
+    <row r="1333">
+      <c r="A1333" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>2.3573200992556</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23907,7 +23915,9 @@
       <c r="A901" s="1" t="n">
         <v>45992</v>
       </c>
-      <c r="B901"/>
+      <c r="B901" t="n">
+        <v>0.373471840949299</v>
+      </c>
       <c r="C901" t="n">
         <v>2.9</v>
       </c>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -23922,6 +23922,15 @@
         <v>2.9</v>
       </c>
     </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>46023</v>
+      </c>
+      <c r="B902"/>
+      <c r="C902" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C02 Figures.xlsx
+++ b/Data/C02 Figures.xlsx
@@ -13996,6 +13996,14 @@
         <v>2.3573200992556</v>
       </c>
     </row>
+    <row r="1334">
+      <c r="A1334" s="1" t="n">
+        <v>46023</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>2.2938623682579</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -23926,7 +23934,9 @@
       <c r="A902" s="1" t="n">
         <v>46023</v>
       </c>
-      <c r="B902"/>
+      <c r="B902" t="n">
+        <v>0.531431023878143</v>
+      </c>
       <c r="C902" t="n">
         <v>2.88</v>
       </c>
